--- a/loop automated assignment.xlsx
+++ b/loop automated assignment.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,70 +360,25 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>PUSKESMAS</t>
+          <t>desa_posyandu</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>nama_desa_shp</t>
+          <t>desa_easyness</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>POPULASI</t>
+          <t>staff_id</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>desa_posyandu</t>
+          <t>hand_score</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>enrollment_rate_ds</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>exp_preg</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>exp_enroll</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>total_valid</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>total_missing</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>missing_rate_ds</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>desa_easyness</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>staff</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>hand_score</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
@@ -432,366 +387,460 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DASAN LEKONG</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Desa Dasan Lekong</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>755.3333333333334</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Desa Dasan Lekong TIMUK JERO II</t>
-        </is>
-      </c>
-      <c r="E2">
-        <v>26.92307692307692</v>
-      </c>
-      <c r="F2">
-        <v>1.435182424080234</v>
-      </c>
-      <c r="G2">
-        <v>0.2829937174242714</v>
-      </c>
-      <c r="H2">
-        <v>445</v>
-      </c>
-      <c r="I2">
-        <v>32</v>
-      </c>
-      <c r="J2">
-        <v>93.29140461215934</v>
-      </c>
-      <c r="K2">
-        <v>0.6010724076761813</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>904</t>
-        </is>
-      </c>
-      <c r="M2">
-        <v>49</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Fina Harmalia Yustari</t>
+          <t>Desa Bagik Papan TONTONG SUIT</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.4993589743589743</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>66</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Lalu Zulkifli</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LENEK</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Desa Lenek Ramban Biak</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>863</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Desa Lenek Ramban Biak RAMBAN BELA</t>
-        </is>
-      </c>
-      <c r="E3">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="F3">
-        <v>2.052798131039609</v>
-      </c>
-      <c r="G3">
-        <v>0.1282998831899756</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>940</t>
-        </is>
-      </c>
-      <c r="M3">
-        <v>61</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Lalu Zulkifli</t>
+          <t>Desa Kerumut TORON</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.5598290598290598</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>946</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>63</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Rizkika Zulhimayani</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MASBAGIK</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Desa Masbagik Selatan</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>1054</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Desa Masbagik Selatan KEBUN LAUK TIMUR</t>
-        </is>
-      </c>
-      <c r="E4">
-        <v>2.040816326530612</v>
-      </c>
-      <c r="F4">
-        <v>1.185859463687976</v>
-      </c>
-      <c r="G4">
-        <v>0.01624465018750651</v>
-      </c>
-      <c r="H4">
-        <v>501</v>
-      </c>
-      <c r="I4">
-        <v>156</v>
-      </c>
-      <c r="J4">
-        <v>76.25570776255708</v>
-      </c>
-      <c r="K4">
-        <v>0.3914826204454385</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>926</t>
-        </is>
-      </c>
-      <c r="M4">
-        <v>66</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Andani Trihartati</t>
+          <t>Desa Pohgading Timur BAGEK GAET I</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>0.5770833333333333</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>58</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Amini</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MASBAGIK</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Desa Paokmotong</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>790.9047619047619</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Desa Paokmotong BILASUNDUNG</t>
-        </is>
-      </c>
-      <c r="E5">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="F5">
-        <v>0.8814814814814816</v>
-      </c>
-      <c r="G5">
-        <v>0.0388888888888889</v>
-      </c>
-      <c r="H5">
-        <v>475</v>
-      </c>
-      <c r="I5">
-        <v>128</v>
-      </c>
-      <c r="J5">
-        <v>78.77280265339967</v>
-      </c>
-      <c r="K5">
-        <v>0.4216417910447761</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>909</t>
-        </is>
-      </c>
-      <c r="M5">
-        <v>62</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Juni ardi</t>
+          <t>Desa Pringgabaya PUNCANG SARI</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>0.6015911872705019</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>51</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Baiq Eva Melyana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SAKRA</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Desa Sakra</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>936</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Desa Sakra PEMURAH</t>
-        </is>
-      </c>
-      <c r="E6">
-        <v>68.53932584269663</v>
-      </c>
-      <c r="F6">
-        <v>0.7145158043084358</v>
-      </c>
-      <c r="G6">
-        <v>0.3352728004831891</v>
-      </c>
-      <c r="H6">
-        <v>201</v>
-      </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
-      <c r="J6">
-        <v>93.05555555555556</v>
-      </c>
-      <c r="K6">
-        <v>0.807974406991261</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>962</t>
-        </is>
-      </c>
-      <c r="M6">
-        <v>49</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Harmiati Harmiati</t>
+          <t>Desa Jantuk GB LAUK (JANTUK)</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>0.5934744268077601</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Andani Trihartati</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TERARA</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Desa Sukadana</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>763</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Desa Sukadana KEBON BUNUT</t>
-        </is>
-      </c>
-      <c r="E7">
-        <v>41.66666666666667</v>
-      </c>
-      <c r="F7">
-        <v>0.4592834610184767</v>
-      </c>
-      <c r="G7">
-        <v>0.1350833708877873</v>
-      </c>
-      <c r="H7">
-        <v>51</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>94.44444444444444</v>
-      </c>
-      <c r="K7">
-        <v>0.6805555555555556</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>961</t>
-        </is>
-      </c>
-      <c r="M7">
-        <v>49</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Anggun Seftean Triana</t>
+          <t>Desa Setanggor GENTER BARAT</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.5645102339181287</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>81</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aldian Hidayat</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LABUAN HAJI</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Desa Banjarsari</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>791.5714285714286</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Desa Banjarsari TAMAN SARI</t>
-        </is>
-      </c>
-      <c r="E8">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="F8">
-        <v>1.160024469820554</v>
-      </c>
-      <c r="G8">
-        <v>0.3954628874388254</v>
-      </c>
-      <c r="L8" t="inlineStr">
+          <t>Kelurahan Sekarteja SEKARTEJA II</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.5598290598290598</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>904</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>52</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fina Harmalia Yustari</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Desa Kerongkong DAYAN BARA I</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>0.6670554300272685</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>938</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>57</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ledia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Kelurahan Geres GERES TIMUK</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>0.6670554300272685</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>961</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>84</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Anggun Seftean Triana</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Desa Gelanggang DASAN BELEK</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>0.7360548807917229</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>55</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Harmiati Harmiati</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Desa Lepak Timur MONTONG MAS</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>0.6670554300272685</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>910</t>
         </is>
       </c>
-      <c r="M8">
-        <v>52</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="D12">
+        <v>54</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Rizkia Afriani</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Desa Menceh MENCEH</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>0.6430205949656751</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>967</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>45</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Nurul</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Desa Surabaya TIMUK PEKEN I</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>0.673202614379085</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>53</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Alpani Muis</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Desa Surabaya Utara TIBU BAGEK</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>0.962962962962963</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>45</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Riana</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Desa Pringgajurang Utara GUMITRI</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>0.6406695156695156</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>958</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>70</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Muhammad Romi Azhari</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Desa Rarang PENGONGSOR</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0.7361111111111112</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>937</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>68</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Dita Rieza Permatasari</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Kelurahan Kelayu Utara GUBUK TENGAK</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>0.4646464646464647</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>45</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Muhammad Sulaiman</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Desa Sikur Selatan BAGEK BELANG</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>0.6865079365079364</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>69</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Lalu Haditya Arria Rahmana</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Desa Mamben Baru ORONG R. LAUK</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>0.7341269841269841</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>68</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Lalu Awalya Rohman (Awalya)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Desa Tembeng Putik TB PUTIK TIMUK I</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>0.6059508124725516</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>46</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Nurul Laelatur Rahmah</t>
         </is>
       </c>
     </row>
